--- a/public/reports/sales_report_g.xlsx
+++ b/public/reports/sales_report_g.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>SALES REPORT</t>
   </si>
@@ -22,7 +22,7 @@
     <t>Generated on</t>
   </si>
   <si>
-    <t>16/1/2019</t>
+    <t>17/1/2019</t>
   </si>
   <si>
     <t>S.NO</t>
@@ -40,70 +40,58 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>91403</t>
-  </si>
-  <si>
-    <t>fayyaz threading co</t>
-  </si>
-  <si>
     <t>undefined</t>
   </si>
   <si>
-    <t>10000.00</t>
-  </si>
-  <si>
-    <t>2019/003</t>
-  </si>
-  <si>
-    <t>po/fayyaz threading co/2019/1</t>
+    <t>lpo/Dream uniforms/12369</t>
+  </si>
+  <si>
+    <t>59640</t>
+  </si>
+  <si>
+    <t>2019-01-19</t>
+  </si>
+  <si>
+    <t>27429</t>
   </si>
   <si>
     <t>2019-01-11</t>
   </si>
   <si>
-    <t>149000.56</t>
-  </si>
-  <si>
-    <t>po/fayyaz threading co/2019/3</t>
-  </si>
-  <si>
-    <t>30000.00</t>
-  </si>
-  <si>
-    <t>po/fayyaz threading co/2019/4</t>
+    <t>lpo/Dream uniforms/65662</t>
+  </si>
+  <si>
+    <t>96821</t>
   </si>
   <si>
     <t>2019-01-12</t>
   </si>
   <si>
-    <t>1500.55</t>
-  </si>
-  <si>
-    <t>36449</t>
-  </si>
-  <si>
-    <t>Abbas Ali and sons</t>
-  </si>
-  <si>
-    <t>2400.00</t>
-  </si>
-  <si>
-    <t>122665</t>
-  </si>
-  <si>
-    <t>60000</t>
-  </si>
-  <si>
-    <t>44486</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>Total Amount</t>
-  </si>
-  <si>
-    <t>262973.11</t>
+    <t>95920</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>lpo/Dream uniforms/78605</t>
+  </si>
+  <si>
+    <t>52003</t>
+  </si>
+  <si>
+    <t>lpo/Affan uniforms co./500</t>
+  </si>
+  <si>
+    <t>2019/1</t>
+  </si>
+  <si>
+    <t>2019-01-14</t>
+  </si>
+  <si>
+    <t>2019/2</t>
+  </si>
+  <si>
+    <t>2019-01-15</t>
   </si>
 </sst>
 </file>
@@ -448,7 +436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="E4" sqref="E4"/>
@@ -517,16 +505,16 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -534,16 +522,16 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -551,16 +539,16 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -568,16 +556,16 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -585,13 +573,13 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
         <v>21</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
       </c>
       <c r="E11" t="s">
         <v>23</v>
@@ -602,41 +590,16 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
       </c>
       <c r="E12" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/public/reports/sales_report_g.xlsx
+++ b/public/reports/sales_report_g.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>SALES REPORT</t>
   </si>
@@ -22,7 +22,7 @@
     <t>Generated on</t>
   </si>
   <si>
-    <t>17/1/2019</t>
+    <t>21/1/2019</t>
   </si>
   <si>
     <t>S.NO</t>
@@ -40,58 +40,61 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>undefined</t>
-  </si>
-  <si>
-    <t>lpo/Dream uniforms/12369</t>
-  </si>
-  <si>
-    <t>59640</t>
+    <t>lpo/Dream uniforms/87790</t>
+  </si>
+  <si>
+    <t>Dream uniforms</t>
+  </si>
+  <si>
+    <t>2019-01-25</t>
+  </si>
+  <si>
+    <t>100000.00</t>
+  </si>
+  <si>
+    <t>lpo/Dream uniforms/70615</t>
+  </si>
+  <si>
+    <t>55000.00</t>
+  </si>
+  <si>
+    <t>lpo/Dream uniforms/35440</t>
+  </si>
+  <si>
+    <t>2019-01-26</t>
+  </si>
+  <si>
+    <t>40000.00</t>
+  </si>
+  <si>
+    <t>lpo/Dream uniforms/27595</t>
   </si>
   <si>
     <t>2019-01-19</t>
   </si>
   <si>
-    <t>27429</t>
-  </si>
-  <si>
-    <t>2019-01-11</t>
-  </si>
-  <si>
-    <t>lpo/Dream uniforms/65662</t>
-  </si>
-  <si>
-    <t>96821</t>
-  </si>
-  <si>
-    <t>2019-01-12</t>
-  </si>
-  <si>
-    <t>95920</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>lpo/Dream uniforms/78605</t>
-  </si>
-  <si>
-    <t>52003</t>
-  </si>
-  <si>
-    <t>lpo/Affan uniforms co./500</t>
-  </si>
-  <si>
-    <t>2019/1</t>
-  </si>
-  <si>
-    <t>2019-01-14</t>
-  </si>
-  <si>
-    <t>2019/2</t>
-  </si>
-  <si>
-    <t>2019-01-15</t>
+    <t>30000.00</t>
+  </si>
+  <si>
+    <t>lpo/NeuralStack/67991</t>
+  </si>
+  <si>
+    <t>NeuralStack</t>
+  </si>
+  <si>
+    <t>lpo/Dream uniforms/DU/PO/2019-001</t>
+  </si>
+  <si>
+    <t>2019-01-20</t>
+  </si>
+  <si>
+    <t>5850000.00</t>
+  </si>
+  <si>
+    <t>Total Amount</t>
+  </si>
+  <si>
+    <t>6175000.00</t>
   </si>
 </sst>
 </file>
@@ -505,13 +508,13 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -522,10 +525,10 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
@@ -539,16 +542,16 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -556,16 +559,16 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -573,33 +576,24 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
